--- a/medicine/Pharmacie/Classe_ATC_D10/Classe_ATC_D10.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_D10/Classe_ATC_D10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D10, dénommée « Anti-acnéiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD10[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D10, dénommée « Anti-acnéiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD10. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,38 +525,213 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D10AA Corticostéroïdes, associations pour traitement de l'acné
-D10AA01 Fluorométholone
+          <t>D10AA Corticostéroïdes, associations pour traitement de l'acné</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D10AA01 Fluorométholone
 D10AA02 Méthylprednisolone
-D10AA03 Dexaméthasone
-D10AB Préparations contenant du soufre
-D10AB01 Bithionol (en)
+D10AA03 Dexaméthasone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D10A Anti-acnéiques pour usage topique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D10AB Préparations contenant du soufre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D10AB01 Bithionol (en)
 D10AB02 Soufre
 D10AB03 Tioxolone (en)
-D10AB05 Mésulfène (en)
-D10AD Rétinoïdes pour usage topique contre l'acné
-D10AD01 Trétinoïne
+D10AB05 Mésulfène (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D10A Anti-acnéiques pour usage topique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D10AD Rétinoïdes pour usage topique contre l'acné</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D10AD01 Trétinoïne
 D10AD02 Rétinol
 D10AD03 Adapalène
 D10AD04 Isotrétinoïne
 D10AD05 Motrétinide (en)
 D10AD51 Trétinoïne, associations
 D10AD53 Adapalène, associations
-D10AD54 Isotrétinoïne, associations
-D10AE Peroxydes
-D10AE01 Peroxyde de benzoyle
-D10AE51 Peroxyde de benzoyle, associations
-D10AF Anti-infectieux pour traitement de l'acné
-D10AF01 Clindamycine
+D10AD54 Isotrétinoïne, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D10A Anti-acnéiques pour usage topique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D10AE Peroxydes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D10AE01 Peroxyde de benzoyle
+D10AE51 Peroxyde de benzoyle, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D10A Anti-acnéiques pour usage topique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D10AF Anti-infectieux pour traitement de l'acné</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D10AF01 Clindamycine
 D10AF02 Érythromycine
 D10AF03 Chloramphénicol
 D10AF04 Méclocycline (en)
 D10AF05 Nadifloxacine (en)
 D10AF06 Sulfacétamide
 D10AF51 Clindamycine, associations
-D10AF52 Érythromycine, associations
-D10AX Autres anti-acnéiques pour usage topique
-D10AX01 Chlorure d'aluminium
+D10AF52 Érythromycine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D10A Anti-acnéiques pour usage topique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D10AX Autres anti-acnéiques pour usage topique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D10AX01 Chlorure d'aluminium
 D10AX02 Résorcine
 D10AX03 Acide azélaïque
 D10AX04 Oxyde d'aluminium
@@ -553,36 +740,75 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Classe_ATC_D10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_D10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>D10B Anti-acnéiques pour usage systémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D10BA Rétinoïdes pour traitement de l'acné
-D10BA01 Isotrétinoïne
-D10BX Autres anti-acnéiques pour usage systémique
-D10BX01 Ichtasol</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D10BA Rétinoïdes pour traitement de l'acné</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D10BA01 Isotrétinoïne</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D10B Anti-acnéiques pour usage systémique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D10BX Autres anti-acnéiques pour usage systémique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D10BX01 Ichtasol</t>
         </is>
       </c>
     </row>
